--- a/conception/Grille dévaluation Projet Java-Uml-POO.xlsx
+++ b/conception/Grille dévaluation Projet Java-Uml-POO.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julien\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Etienne\Desktop\JavaProject\JavaProject_Boulderdash\conception\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="13905" windowHeight="8370"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="13905" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Projet" sheetId="1" r:id="rId1"/>
     <sheet name="Cahier de test" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1331,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,8 +2438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B1" s="49" t="str">
         <f>B3</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
@@ -2469,14 +2469,14 @@
       </c>
       <c r="B3" s="12" t="str">
         <f>IF(D3&gt;16,"A",IF(D3&gt;10.5,"B",IF(D3&gt;5.5,"C","D")))</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="12">
         <f>SUM(D4:D13)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>3</v>
@@ -2486,7 +2486,9 @@
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="16">
+        <v>0</v>
+      </c>
       <c r="C4" s="5">
         <v>3</v>
       </c>
@@ -2502,13 +2504,15 @@
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
       <c r="C5" s="6">
         <v>3</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ref="D5:D13" si="0">(B5/E5)*C5</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E5" s="6">
         <v>2</v>
@@ -2518,13 +2522,15 @@
       <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="17">
+        <v>2</v>
+      </c>
       <c r="C6" s="6">
         <v>3</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="6">
         <v>2</v>
@@ -2534,7 +2540,9 @@
       <c r="A7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="17">
+        <v>0</v>
+      </c>
       <c r="C7" s="6">
         <v>2</v>
       </c>
@@ -2550,13 +2558,15 @@
       <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="17">
+        <v>1</v>
+      </c>
       <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
@@ -2566,7 +2576,9 @@
       <c r="A9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="17">
+        <v>0</v>
+      </c>
       <c r="C9" s="6">
         <v>2</v>
       </c>
@@ -2582,7 +2594,9 @@
       <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="17">
+        <v>0</v>
+      </c>
       <c r="C10" s="6">
         <v>2</v>
       </c>
@@ -2598,13 +2612,15 @@
       <c r="A11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="17">
+        <v>1</v>
+      </c>
       <c r="C11" s="6">
         <v>3</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E11" s="6">
         <v>2</v>
@@ -2614,13 +2630,15 @@
       <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
@@ -2630,7 +2648,9 @@
       <c r="A13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="18">
+        <v>0</v>
+      </c>
       <c r="C13" s="7">
         <v>1</v>
       </c>

--- a/conception/Grille dévaluation Projet Java-Uml-POO.xlsx
+++ b/conception/Grille dévaluation Projet Java-Uml-POO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="13905" windowHeight="8370" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="13905" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Projet" sheetId="1" r:id="rId1"/>
@@ -1331,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="P4" s="21">
         <f>SUM(P5:P14)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="29" t="s">
         <v>3</v>
@@ -2063,14 +2063,14 @@
         <v>53</v>
       </c>
       <c r="N13" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O13" s="6">
         <v>2</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" ref="P13" si="4">(N13/Q13)*O13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="34">
         <v>2</v>
@@ -2438,7 +2438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/conception/Grille dévaluation Projet Java-Uml-POO.xlsx
+++ b/conception/Grille dévaluation Projet Java-Uml-POO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="13905" windowHeight="8370"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="13905" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Projet" sheetId="1" r:id="rId1"/>
@@ -1084,23 +1084,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1136,23 +1119,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1331,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,7 +1407,7 @@
       </c>
       <c r="D4" s="12">
         <f>SUM(D5:D21)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>3</v>
@@ -2097,14 +2063,14 @@
         <v>63</v>
       </c>
       <c r="B14" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="6">
         <v>3</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
@@ -2334,14 +2300,14 @@
         <v>45</v>
       </c>
       <c r="B19" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="7">
         <v>2</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="7">
         <v>1</v>
@@ -2438,8 +2404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2456,7 +2422,7 @@
       </c>
       <c r="B1" s="49" t="str">
         <f>B3</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
@@ -2469,14 +2435,14 @@
       </c>
       <c r="B3" s="12" t="str">
         <f>IF(D3&gt;16,"A",IF(D3&gt;10.5,"B",IF(D3&gt;5.5,"C","D")))</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="12">
         <f>SUM(D4:D13)</f>
-        <v>9</v>
+        <v>15.5</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>3</v>
@@ -2487,14 +2453,14 @@
         <v>26</v>
       </c>
       <c r="B4" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
       </c>
       <c r="D4" s="5">
         <f>(B4/E4)*C4</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="5">
         <v>2</v>
@@ -2505,14 +2471,14 @@
         <v>27</v>
       </c>
       <c r="B5" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ref="D5:D13" si="0">(B5/E5)*C5</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E5" s="6">
         <v>2</v>
@@ -2595,14 +2561,14 @@
         <v>32</v>
       </c>
       <c r="B10" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="6">
         <v>2</v>
@@ -2649,14 +2615,14 @@
         <v>36</v>
       </c>
       <c r="B13" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
